--- a/data/trans_orig/P21D_2_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F02E87A-B811-422C-8BC8-B2EE21785B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81FF3297-1168-4550-9697-2BE19E74CA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB8FEDBA-C8CE-4B0B-9BAB-F8A2BA3CE011}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E5028868-F5C8-4A2B-97D4-02704F65F2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="133">
   <si>
     <t>Población que, necesitando atención sanitaria dental, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,85%)</t>
   </si>
@@ -77,367 +77,361 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,92%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>98,33%</t>
   </si>
   <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>97,95%</t>
   </si>
   <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -852,7 +846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92C604F-8697-4807-96AC-5A0D13CE13F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE8823E-E17E-4688-B680-453F0A3034A6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1766,13 +1760,13 @@
         <v>4414</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -1781,13 +1775,13 @@
         <v>6292</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,13 +1811,13 @@
         <v>390192</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>1144</v>
@@ -1832,10 +1826,10 @@
         <v>681765</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>117</v>
@@ -1921,13 +1915,13 @@
         <v>40368</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>90</v>
@@ -1936,13 +1930,13 @@
         <v>65759</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,10 +1951,10 @@
         <v>1493140</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>82</v>
@@ -1972,13 +1966,13 @@
         <v>1642345</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M23" s="7">
         <v>3744</v>
@@ -1987,13 +1981,13 @@
         <v>3135485</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,7 +2043,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_2_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81FF3297-1168-4550-9697-2BE19E74CA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FE73779-078F-4940-9FA1-51E1B79CDBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E5028868-F5C8-4A2B-97D4-02704F65F2D1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E613A6FD-239F-442B-8FEE-2E2D69EEC30A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -846,7 +846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE8823E-E17E-4688-B680-453F0A3034A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A892AEC-04FA-4E27-9237-C8DBC1378231}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_2_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FE73779-078F-4940-9FA1-51E1B79CDBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A97DEE39-FE55-4F23-871B-B87C3FFB96E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E613A6FD-239F-442B-8FEE-2E2D69EEC30A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ACE9B553-4F6E-4B74-A1DA-FF5618722707}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
   <si>
     <t>Población que, necesitando atención sanitaria dental, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,85%)</t>
   </si>
@@ -77,16 +77,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,47%</t>
+    <t>0,43%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
   </si>
   <si>
     <t>0,96%</t>
@@ -95,7 +95,7 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>3,45%</t>
+    <t>3,13%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,53%</t>
+    <t>99,57%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,16 +113,16 @@
     <t>97,99%</t>
   </si>
   <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
   </si>
   <si>
     <t>99,04%</t>
   </si>
   <si>
-    <t>96,55%</t>
+    <t>96,87%</t>
   </si>
   <si>
     <t>99,91%</t>
@@ -137,301 +137,307 @@
     <t>0,67%</t>
   </si>
   <si>
-    <t>3,23%</t>
+    <t>3,15%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>97,95%</t>
   </si>
   <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -846,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A892AEC-04FA-4E27-9237-C8DBC1378231}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896B5C22-FF9D-4EFF-A6D5-06682B90CB41}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1760,13 +1766,13 @@
         <v>4414</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -1775,13 +1781,13 @@
         <v>6292</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,13 +1817,13 @@
         <v>390192</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>1144</v>
@@ -1826,10 +1832,10 @@
         <v>681765</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>117</v>
@@ -1915,13 +1921,13 @@
         <v>40368</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>90</v>
@@ -1930,13 +1936,13 @@
         <v>65759</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,10 +1957,10 @@
         <v>1493140</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>82</v>
@@ -1966,13 +1972,13 @@
         <v>1642345</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7">
         <v>3744</v>
@@ -1981,13 +1987,13 @@
         <v>3135485</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,7 +2049,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_2_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A97DEE39-FE55-4F23-871B-B87C3FFB96E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54712A62-ACEE-4944-97ED-DA3230C47A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ACE9B553-4F6E-4B74-A1DA-FF5618722707}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{16B3E134-8DF4-4538-97FE-223BFA5D1A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="151">
   <si>
     <t>Población que, necesitando atención sanitaria dental, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,85%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,340 +104,388 @@
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,57%</t>
+    <t>99,56%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>1,42%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
   </si>
   <si>
     <t>98,1%</t>
   </si>
   <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -852,8 +900,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896B5C22-FF9D-4EFF-A6D5-06682B90CB41}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0516188-BA9F-4DEF-B8CE-06E15363931D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -973,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -988,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>3189</v>
+        <v>2995</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1003,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>3350</v>
+        <v>3166</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1024,7 +1072,7 @@
         <v>84</v>
       </c>
       <c r="D5" s="7">
-        <v>191614</v>
+        <v>203778</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1039,7 +1087,7 @@
         <v>90</v>
       </c>
       <c r="I5" s="7">
-        <v>155465</v>
+        <v>137351</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1054,7 +1102,7 @@
         <v>174</v>
       </c>
       <c r="N5" s="7">
-        <v>347080</v>
+        <v>341128</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1075,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="D6" s="7">
-        <v>191775</v>
+        <v>203949</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1090,7 +1138,7 @@
         <v>93</v>
       </c>
       <c r="I6" s="7">
-        <v>158654</v>
+        <v>140346</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1105,7 +1153,7 @@
         <v>178</v>
       </c>
       <c r="N6" s="7">
-        <v>350430</v>
+        <v>344294</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1128,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1376</v>
+        <v>1709</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1143,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>3598</v>
+        <v>3712</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -1158,7 +1206,7 @@
         <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>4974</v>
+        <v>5421</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>37</v>
@@ -1179,7 +1227,7 @@
         <v>143</v>
       </c>
       <c r="D8" s="7">
-        <v>205142</v>
+        <v>203013</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -1194,7 +1242,7 @@
         <v>221</v>
       </c>
       <c r="I8" s="7">
-        <v>251416</v>
+        <v>285747</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>42</v>
@@ -1209,7 +1257,7 @@
         <v>364</v>
       </c>
       <c r="N8" s="7">
-        <v>456558</v>
+        <v>488760</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1230,7 +1278,7 @@
         <v>145</v>
       </c>
       <c r="D9" s="7">
-        <v>206518</v>
+        <v>204722</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1245,7 +1293,7 @@
         <v>227</v>
       </c>
       <c r="I9" s="7">
-        <v>255014</v>
+        <v>289459</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1260,7 +1308,7 @@
         <v>372</v>
       </c>
       <c r="N9" s="7">
-        <v>461532</v>
+        <v>494181</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1283,7 +1331,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>2715</v>
+        <v>3061</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1298,7 +1346,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>6809</v>
+        <v>6175</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>52</v>
@@ -1313,7 +1361,7 @@
         <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>9524</v>
+        <v>9236</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>55</v>
@@ -1334,7 +1382,7 @@
         <v>215</v>
       </c>
       <c r="D11" s="7">
-        <v>221060</v>
+        <v>212425</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>58</v>
@@ -1349,7 +1397,7 @@
         <v>386</v>
       </c>
       <c r="I11" s="7">
-        <v>270544</v>
+        <v>251514</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -1364,7 +1412,7 @@
         <v>601</v>
       </c>
       <c r="N11" s="7">
-        <v>491604</v>
+        <v>463939</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1385,7 +1433,7 @@
         <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>223775</v>
+        <v>215486</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1400,7 +1448,7 @@
         <v>395</v>
       </c>
       <c r="I12" s="7">
-        <v>277353</v>
+        <v>257689</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1415,7 +1463,7 @@
         <v>617</v>
       </c>
       <c r="N12" s="7">
-        <v>501128</v>
+        <v>473175</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1438,7 +1486,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>9239</v>
+        <v>9029</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
@@ -1453,7 +1501,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>12598</v>
+        <v>10317</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
@@ -1468,7 +1516,7 @@
         <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>21838</v>
+        <v>19346</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
@@ -1489,7 +1537,7 @@
         <v>285</v>
       </c>
       <c r="D14" s="7">
-        <v>338201</v>
+        <v>517529</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -1504,7 +1552,7 @@
         <v>518</v>
       </c>
       <c r="I14" s="7">
-        <v>336338</v>
+        <v>310545</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -1519,7 +1567,7 @@
         <v>803</v>
       </c>
       <c r="N14" s="7">
-        <v>674538</v>
+        <v>828073</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -1540,7 +1588,7 @@
         <v>296</v>
       </c>
       <c r="D15" s="7">
-        <v>347440</v>
+        <v>526558</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1555,7 +1603,7 @@
         <v>528</v>
       </c>
       <c r="I15" s="7">
-        <v>348936</v>
+        <v>320862</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1570,7 +1618,7 @@
         <v>824</v>
       </c>
       <c r="N15" s="7">
-        <v>696376</v>
+        <v>847419</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1593,7 +1641,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>10023</v>
+        <v>9767</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>87</v>
@@ -1608,7 +1656,7 @@
         <v>20</v>
       </c>
       <c r="I16" s="7">
-        <v>9760</v>
+        <v>9101</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>90</v>
@@ -1623,16 +1671,16 @@
         <v>31</v>
       </c>
       <c r="N16" s="7">
-        <v>19782</v>
+        <v>18868</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1644,46 +1692,46 @@
         <v>267</v>
       </c>
       <c r="D17" s="7">
-        <v>245548</v>
+        <v>228737</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>391</v>
       </c>
       <c r="I17" s="7">
-        <v>238391</v>
+        <v>218225</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>658</v>
       </c>
       <c r="N17" s="7">
-        <v>483939</v>
+        <v>446962</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1695,7 +1743,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>255571</v>
+        <v>238504</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1710,7 +1758,7 @@
         <v>411</v>
       </c>
       <c r="I18" s="7">
-        <v>248151</v>
+        <v>227326</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1725,7 +1773,7 @@
         <v>689</v>
       </c>
       <c r="N18" s="7">
-        <v>503721</v>
+        <v>465830</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1739,7 +1787,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1748,46 +1796,46 @@
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>1878</v>
+        <v>1749</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>4414</v>
+        <v>2118</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>6292</v>
+        <v>3867</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1796,49 +1844,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>432</v>
+        <v>240</v>
       </c>
       <c r="D20" s="7">
-        <v>291573</v>
+        <v>154605</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="7">
-        <v>712</v>
+        <v>371</v>
       </c>
       <c r="I20" s="7">
-        <v>390192</v>
+        <v>183742</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
-        <v>1144</v>
+        <v>611</v>
       </c>
       <c r="N20" s="7">
-        <v>681765</v>
+        <v>338346</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,10 +1895,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>434</v>
+        <v>242</v>
       </c>
       <c r="D21" s="7">
-        <v>293451</v>
+        <v>156354</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1862,10 +1910,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>720</v>
+        <v>375</v>
       </c>
       <c r="I21" s="7">
-        <v>394606</v>
+        <v>185860</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1877,10 +1925,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1154</v>
+        <v>617</v>
       </c>
       <c r="N21" s="7">
-        <v>688057</v>
+        <v>342213</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1894,55 +1942,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>25391</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>40368</v>
+        <v>2017</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>65759</v>
+        <v>2017</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,28 +1999,28 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1426</v>
+        <v>192</v>
       </c>
       <c r="D23" s="7">
-        <v>1493140</v>
+        <v>118206</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
-        <v>2318</v>
+        <v>341</v>
       </c>
       <c r="I23" s="7">
-        <v>1642345</v>
+        <v>168598</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>129</v>
@@ -1981,10 +2029,10 @@
         <v>130</v>
       </c>
       <c r="M23" s="7">
-        <v>3744</v>
+        <v>533</v>
       </c>
       <c r="N23" s="7">
-        <v>3135485</v>
+        <v>286805</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>131</v>
@@ -2002,63 +2050,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>192</v>
+      </c>
+      <c r="D24" s="7">
+        <v>118206</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>345</v>
+      </c>
+      <c r="I24" s="7">
+        <v>170615</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>537</v>
+      </c>
+      <c r="N24" s="7">
+        <v>288822</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>34</v>
+      </c>
+      <c r="D25" s="7">
+        <v>25487</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="7">
+        <v>56</v>
+      </c>
+      <c r="I25" s="7">
+        <v>36433</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M25" s="7">
+        <v>90</v>
+      </c>
+      <c r="N25" s="7">
+        <v>61921</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1426</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1638291</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2318</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1555723</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3744</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3194013</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1460</v>
       </c>
-      <c r="D24" s="7">
-        <v>1518531</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1663778</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2374</v>
       </c>
-      <c r="I24" s="7">
-        <v>1682713</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1592156</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>3834</v>
       </c>
-      <c r="N24" s="7">
-        <v>3201244</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>134</v>
+      <c r="N27" s="7">
+        <v>3255934</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
